--- a/data/output/FV2304_FV2210/PARTIN/37001.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6737" uniqueCount="286">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6758" uniqueCount="286">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1006,6 +1006,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U310" totalsRowShown="0">
+  <autoFilter ref="A1:U310"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,7 +1325,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15632,5 +15665,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/PARTIN/37001.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8091" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7571" uniqueCount="590">
   <si>
     <t>#</t>
   </si>
@@ -3443,50 +3443,48 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3518,9 +3516,7 @@
         <v>239</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>27</v>
       </c>
@@ -3572,9 +3568,7 @@
         <v>244</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="5" t="s">
         <v>27</v>
       </c>
@@ -3626,9 +3620,7 @@
         <v>239</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -3849,44 +3841,42 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V33" s="5"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3910,9 +3900,7 @@
         <v>238</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
@@ -3960,9 +3948,7 @@
         <v>239</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>29</v>
       </c>
@@ -4016,9 +4002,7 @@
       <c r="K36" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>29</v>
       </c>
@@ -4072,9 +4056,7 @@
         <v>239</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>29</v>
       </c>
@@ -4128,9 +4110,7 @@
         <v>239</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>29</v>
       </c>
@@ -4157,44 +4137,42 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M39" s="5" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="V39" s="5"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="5" t="s">
@@ -4218,9 +4196,7 @@
         <v>238</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>30</v>
       </c>
@@ -4268,9 +4244,7 @@
         <v>239</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>30</v>
       </c>
@@ -4322,9 +4296,7 @@
         <v>239</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>30</v>
       </c>
@@ -4349,48 +4321,46 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M43" s="5" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -4420,9 +4390,7 @@
       <c r="K44" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>31</v>
       </c>
@@ -4476,9 +4444,7 @@
         <v>248</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>31</v>
       </c>
@@ -4532,9 +4498,7 @@
         <v>248</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>31</v>
       </c>
@@ -4588,9 +4552,7 @@
         <v>248</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="5" t="s">
         <v>31</v>
       </c>
@@ -4644,9 +4606,7 @@
         <v>248</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>31</v>
       </c>
@@ -4700,9 +4660,7 @@
         <v>248</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>31</v>
       </c>
@@ -4729,44 +4687,42 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V50" s="5"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -4790,9 +4746,7 @@
         <v>238</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>32</v>
       </c>
@@ -4840,9 +4794,7 @@
         <v>239</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4896,9 +4848,7 @@
       <c r="K53" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>32</v>
       </c>
@@ -4952,9 +4902,7 @@
         <v>239</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -5008,9 +4956,7 @@
         <v>239</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>32</v>
       </c>
@@ -5037,44 +4983,42 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5" t="s">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -5102,9 +5046,7 @@
         <v>239</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -5129,46 +5071,44 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
+      <c r="C58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M58" s="5" t="s">
+      <c r="L58" s="4"/>
+      <c r="M58" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5" t="s">
+      <c r="N58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V58" s="5" t="s">
+      <c r="V58" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5194,9 +5134,7 @@
         <v>238</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>34</v>
       </c>
@@ -5244,9 +5182,7 @@
         <v>239</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>34</v>
       </c>
@@ -5298,9 +5234,7 @@
         <v>239</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>34</v>
       </c>
@@ -5352,9 +5286,7 @@
         <v>239</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>34</v>
       </c>
@@ -5406,9 +5338,7 @@
         <v>239</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>34</v>
       </c>
@@ -5458,9 +5388,7 @@
         <v>239</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>34</v>
       </c>
@@ -5512,9 +5440,7 @@
       <c r="K65" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>34</v>
       </c>
@@ -5566,9 +5492,7 @@
         <v>239</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>34</v>
       </c>
@@ -5593,48 +5517,46 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="K67" s="2"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O67" s="5" t="s">
+      <c r="N67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V67" s="5"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -6315,48 +6237,46 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N83" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O83" s="5" t="s">
+      <c r="N83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O83" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -6386,9 +6306,7 @@
         <v>239</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -6440,9 +6358,7 @@
         <v>239</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>38</v>
       </c>
@@ -6467,50 +6383,48 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="C86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O86" s="5" t="s">
+      <c r="N86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="V86" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6542,9 +6456,7 @@
         <v>239</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -6596,9 +6508,7 @@
         <v>239</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6648,9 +6558,7 @@
         <v>239</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>39</v>
       </c>
@@ -6675,46 +6583,44 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K90" s="5" t="s">
+      <c r="K90" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L90" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V90" s="5" t="s">
+      <c r="V90" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6740,9 +6646,7 @@
         <v>238</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>40</v>
       </c>
@@ -6790,9 +6694,7 @@
         <v>256</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -6846,9 +6748,7 @@
         <v>257</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
@@ -6900,9 +6800,7 @@
         <v>239</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
@@ -6927,48 +6825,46 @@
       <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N95" s="5" t="s">
+      <c r="N95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O95" s="5" t="s">
+      <c r="O95" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="V95" s="5"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -6998,9 +6894,7 @@
         <v>239</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>41</v>
       </c>
@@ -7054,9 +6948,7 @@
       <c r="K97" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>41</v>
       </c>
@@ -7083,44 +6975,42 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -7144,9 +7034,7 @@
         <v>238</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>42</v>
       </c>
@@ -7194,9 +7082,7 @@
         <v>239</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>42</v>
       </c>
@@ -7223,48 +7109,46 @@
       <c r="V100" s="5"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5" t="s">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M101" s="5" t="s">
+      <c r="K101" s="2"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N101" s="5" t="s">
+      <c r="N101" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O101" s="5" t="s">
+      <c r="O101" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5" t="s">
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V101" s="5"/>
+      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -7294,9 +7178,7 @@
         <v>251</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>43</v>
       </c>
@@ -7350,9 +7232,7 @@
         <v>251</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>43</v>
       </c>
@@ -7406,9 +7286,7 @@
         <v>251</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>43</v>
       </c>
@@ -7462,9 +7340,7 @@
         <v>251</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>43</v>
       </c>
@@ -7518,9 +7394,7 @@
         <v>251</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>43</v>
       </c>
@@ -7574,9 +7448,7 @@
         <v>248</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>43</v>
       </c>
@@ -7630,9 +7502,7 @@
       <c r="K108" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L108" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>43</v>
       </c>
@@ -7686,9 +7556,7 @@
         <v>239</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>43</v>
       </c>
@@ -7715,46 +7583,44 @@
       <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="C110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K110" s="5" t="s">
+      <c r="K110" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L110" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M110" s="5" t="s">
+      <c r="L110" s="4"/>
+      <c r="M110" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="N110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V110" s="5" t="s">
+      <c r="V110" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7780,9 +7646,7 @@
         <v>238</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>44</v>
       </c>
@@ -7830,9 +7694,7 @@
         <v>239</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>44</v>
       </c>
@@ -7886,9 +7748,7 @@
       <c r="K113" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L113" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>44</v>
       </c>
@@ -7942,9 +7802,7 @@
         <v>239</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>44</v>
       </c>
@@ -7996,9 +7854,7 @@
         <v>239</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>44</v>
       </c>
@@ -8048,9 +7904,7 @@
         <v>239</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>44</v>
       </c>
@@ -8156,9 +8010,7 @@
         <v>239</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>44</v>
       </c>
@@ -8183,44 +8035,42 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="C119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N119" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="N119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8244,9 +8094,7 @@
         <v>238</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>30</v>
       </c>
@@ -8294,9 +8142,7 @@
         <v>239</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>30</v>
       </c>
@@ -8350,9 +8196,7 @@
       <c r="K122" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L122" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>30</v>
       </c>
@@ -8379,48 +8223,46 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="C123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N123" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O123" s="5" t="s">
+      <c r="N123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O123" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -8450,9 +8292,7 @@
       <c r="K124" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L124" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>31</v>
       </c>
@@ -8506,9 +8346,7 @@
         <v>251</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>31</v>
       </c>
@@ -8562,9 +8400,7 @@
         <v>251</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>31</v>
       </c>
@@ -8618,9 +8454,7 @@
         <v>248</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>31</v>
       </c>
@@ -8647,46 +8481,44 @@
       <c r="V127" s="5"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5" t="s">
+      <c r="C128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K128" s="5" t="s">
+      <c r="K128" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L128" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M128" s="5" t="s">
+      <c r="L128" s="4"/>
+      <c r="M128" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N128" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5" t="s">
+      <c r="N128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V128" s="5" t="s">
+      <c r="V128" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -8712,9 +8544,7 @@
         <v>238</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>45</v>
       </c>
@@ -8762,9 +8592,7 @@
         <v>239</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>45</v>
       </c>
@@ -8818,9 +8646,7 @@
       <c r="K131" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L131" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>45</v>
       </c>
@@ -8874,9 +8700,7 @@
         <v>239</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>45</v>
       </c>
@@ -8928,9 +8752,7 @@
         <v>239</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>45</v>
       </c>
@@ -8980,9 +8802,7 @@
         <v>239</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>45</v>
       </c>
@@ -9088,9 +8908,7 @@
         <v>239</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>45</v>
       </c>
@@ -9115,44 +8933,42 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="C137" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M137" s="5" t="s">
+      <c r="K137" s="2"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N137" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="N137" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
@@ -9176,9 +8992,7 @@
         <v>238</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>30</v>
       </c>
@@ -9226,9 +9040,7 @@
         <v>239</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>30</v>
       </c>
@@ -9282,9 +9094,7 @@
       <c r="K140" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L140" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>30</v>
       </c>
@@ -9311,48 +9121,46 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M141" s="5" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N141" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O141" s="5" t="s">
+      <c r="N141" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O141" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -9382,9 +9190,7 @@
       <c r="K142" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L142" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>31</v>
       </c>
@@ -9438,9 +9244,7 @@
         <v>251</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>31</v>
       </c>
@@ -9494,9 +9298,7 @@
         <v>251</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>31</v>
       </c>
@@ -9550,9 +9352,7 @@
         <v>248</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>31</v>
       </c>
@@ -9579,46 +9379,44 @@
       <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="C146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K146" s="5" t="s">
+      <c r="K146" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L146" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="L146" s="4"/>
+      <c r="M146" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N146" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="N146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V146" s="5" t="s">
+      <c r="V146" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9644,9 +9442,7 @@
         <v>238</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>46</v>
       </c>
@@ -9694,9 +9490,7 @@
         <v>239</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>46</v>
       </c>
@@ -9750,9 +9544,7 @@
       <c r="K149" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L149" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>46</v>
       </c>
@@ -9806,9 +9598,7 @@
         <v>239</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>46</v>
       </c>
@@ -9860,9 +9650,7 @@
         <v>239</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>46</v>
       </c>
@@ -9912,9 +9700,7 @@
         <v>239</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>46</v>
       </c>
@@ -9966,9 +9752,7 @@
       <c r="K153" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L153" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>46</v>
       </c>
@@ -10020,9 +9804,7 @@
         <v>239</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>46</v>
       </c>
@@ -10047,44 +9829,42 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="C155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N155" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="N155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -10108,9 +9888,7 @@
         <v>238</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>30</v>
       </c>
@@ -10158,9 +9936,7 @@
         <v>239</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>30</v>
       </c>
@@ -10214,9 +9990,7 @@
       <c r="K158" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L158" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>30</v>
       </c>
@@ -10243,48 +10017,46 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="C159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M159" s="5" t="s">
+      <c r="K159" s="2"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N159" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O159" s="5" t="s">
+      <c r="N159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O159" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -10314,9 +10086,7 @@
       <c r="K160" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L160" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>31</v>
       </c>
@@ -10370,9 +10140,7 @@
         <v>251</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>31</v>
       </c>
@@ -10426,9 +10194,7 @@
         <v>251</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>31</v>
       </c>
@@ -10482,9 +10248,7 @@
         <v>248</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>31</v>
       </c>
@@ -10511,46 +10275,44 @@
       <c r="V163" s="5"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5" t="s">
+      <c r="C164" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K164" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L164" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M164" s="5" t="s">
+      <c r="L164" s="4"/>
+      <c r="M164" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N164" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5" t="s">
+      <c r="N164" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V164" s="5" t="s">
+      <c r="V164" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -10576,9 +10338,7 @@
         <v>238</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>47</v>
       </c>
@@ -10626,9 +10386,7 @@
         <v>239</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>47</v>
       </c>
@@ -10682,9 +10440,7 @@
       <c r="K167" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L167" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>47</v>
       </c>
@@ -10738,9 +10494,7 @@
         <v>239</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>47</v>
       </c>
@@ -10792,9 +10546,7 @@
         <v>239</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>47</v>
       </c>
@@ -10844,9 +10596,7 @@
         <v>239</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>47</v>
       </c>
@@ -10898,9 +10648,7 @@
       <c r="K171" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L171" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>47</v>
       </c>
@@ -10952,9 +10700,7 @@
         <v>239</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>47</v>
       </c>
@@ -10979,44 +10725,42 @@
       <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="C173" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M173" s="5" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N173" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="N173" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V173" s="5"/>
+      <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="5" t="s">
@@ -11040,9 +10784,7 @@
         <v>238</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>30</v>
       </c>
@@ -11090,9 +10832,7 @@
         <v>239</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>30</v>
       </c>
@@ -11146,9 +10886,7 @@
       <c r="K176" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L176" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>30</v>
       </c>
@@ -11175,48 +10913,46 @@
       </c>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D177" s="5" t="s">
+      <c r="C177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5" t="s">
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M177" s="5" t="s">
+      <c r="K177" s="2"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N177" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O177" s="5" t="s">
+      <c r="N177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5" t="s">
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V177" s="5"/>
+      <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="5" t="s">
@@ -11246,9 +10982,7 @@
       <c r="K178" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L178" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>31</v>
       </c>
@@ -11302,9 +11036,7 @@
         <v>251</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>31</v>
       </c>
@@ -11358,9 +11090,7 @@
         <v>251</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>31</v>
       </c>
@@ -11414,9 +11144,7 @@
         <v>248</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>31</v>
       </c>
@@ -11443,46 +11171,44 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="C182" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K182" s="5" t="s">
+      <c r="K182" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L182" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N182" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="N182" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V182" s="5" t="s">
+      <c r="V182" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -11508,9 +11234,7 @@
         <v>238</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>48</v>
       </c>
@@ -11558,9 +11282,7 @@
         <v>239</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>48</v>
       </c>
@@ -11614,9 +11336,7 @@
       <c r="K185" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L185" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>48</v>
       </c>
@@ -11670,9 +11390,7 @@
         <v>239</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>48</v>
       </c>
@@ -11724,9 +11442,7 @@
         <v>239</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>48</v>
       </c>
@@ -11776,9 +11492,7 @@
         <v>239</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>48</v>
       </c>
@@ -11884,9 +11598,7 @@
         <v>239</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>48</v>
       </c>
@@ -11911,44 +11623,42 @@
       <c r="V190" s="5"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5" t="s">
+      <c r="C191" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M191" s="5" t="s">
+      <c r="K191" s="2"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N191" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
+      <c r="N191" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V191" s="5"/>
+      <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="5" t="s">
@@ -11972,9 +11682,7 @@
         <v>238</v>
       </c>
       <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>30</v>
       </c>
@@ -12022,9 +11730,7 @@
         <v>239</v>
       </c>
       <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>30</v>
       </c>
@@ -12078,9 +11784,7 @@
       <c r="K194" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L194" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>30</v>
       </c>
@@ -12107,48 +11811,46 @@
       </c>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5" t="s">
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M195" s="5" t="s">
+      <c r="K195" s="2"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N195" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O195" s="5" t="s">
+      <c r="N195" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O195" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5" t="s">
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -12178,9 +11880,7 @@
       <c r="K196" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L196" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>31</v>
       </c>
@@ -12234,9 +11934,7 @@
         <v>251</v>
       </c>
       <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>31</v>
       </c>
@@ -12290,9 +11988,7 @@
         <v>251</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>31</v>
       </c>
@@ -12346,9 +12042,7 @@
         <v>248</v>
       </c>
       <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="5" t="s">
         <v>31</v>
       </c>
@@ -12375,46 +12069,44 @@
       <c r="V199" s="5"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
+      <c r="C200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K200" s="5" t="s">
+      <c r="K200" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L200" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M200" s="5" t="s">
+      <c r="L200" s="4"/>
+      <c r="M200" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N200" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
+      <c r="N200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V200" s="5" t="s">
+      <c r="V200" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -12440,9 +12132,7 @@
         <v>238</v>
       </c>
       <c r="K201" s="5"/>
-      <c r="L201" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L201" s="4"/>
       <c r="M201" s="5" t="s">
         <v>49</v>
       </c>
@@ -12490,9 +12180,7 @@
         <v>239</v>
       </c>
       <c r="K202" s="5"/>
-      <c r="L202" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L202" s="4"/>
       <c r="M202" s="5" t="s">
         <v>49</v>
       </c>
@@ -12546,9 +12234,7 @@
       <c r="K203" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L203" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L203" s="4"/>
       <c r="M203" s="5" t="s">
         <v>49</v>
       </c>
@@ -12602,9 +12288,7 @@
         <v>239</v>
       </c>
       <c r="K204" s="5"/>
-      <c r="L204" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L204" s="4"/>
       <c r="M204" s="5" t="s">
         <v>49</v>
       </c>
@@ -12656,9 +12340,7 @@
         <v>239</v>
       </c>
       <c r="K205" s="5"/>
-      <c r="L205" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L205" s="4"/>
       <c r="M205" s="5" t="s">
         <v>49</v>
       </c>
@@ -12708,9 +12390,7 @@
         <v>239</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>49</v>
       </c>
@@ -12762,9 +12442,7 @@
       <c r="K207" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L207" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L207" s="4"/>
       <c r="M207" s="5" t="s">
         <v>49</v>
       </c>
@@ -12816,9 +12494,7 @@
         <v>239</v>
       </c>
       <c r="K208" s="5"/>
-      <c r="L208" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L208" s="4"/>
       <c r="M208" s="5" t="s">
         <v>49</v>
       </c>
@@ -12843,44 +12519,42 @@
       <c r="V208" s="5"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5" t="s">
+      <c r="C209" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K209" s="5"/>
-      <c r="L209" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M209" s="5" t="s">
+      <c r="K209" s="2"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N209" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
-      <c r="U209" s="5" t="s">
+      <c r="N209" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V209" s="5"/>
+      <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
       <c r="A210" s="5" t="s">
@@ -12904,9 +12578,7 @@
         <v>238</v>
       </c>
       <c r="K210" s="5"/>
-      <c r="L210" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L210" s="4"/>
       <c r="M210" s="5" t="s">
         <v>30</v>
       </c>
@@ -12954,9 +12626,7 @@
         <v>239</v>
       </c>
       <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L211" s="4"/>
       <c r="M211" s="5" t="s">
         <v>30</v>
       </c>
@@ -13010,9 +12680,7 @@
       <c r="K212" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L212" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L212" s="4"/>
       <c r="M212" s="5" t="s">
         <v>30</v>
       </c>
@@ -13039,48 +12707,46 @@
       </c>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D213" s="5" t="s">
+      <c r="C213" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5" t="s">
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K213" s="5"/>
-      <c r="L213" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M213" s="5" t="s">
+      <c r="K213" s="2"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N213" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O213" s="5" t="s">
+      <c r="N213" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O213" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5" t="s">
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V213" s="5"/>
+      <c r="V213" s="2"/>
     </row>
     <row r="214" spans="1:22">
       <c r="A214" s="5" t="s">
@@ -13110,9 +12776,7 @@
       <c r="K214" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L214" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L214" s="4"/>
       <c r="M214" s="5" t="s">
         <v>31</v>
       </c>
@@ -13166,9 +12830,7 @@
         <v>251</v>
       </c>
       <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>31</v>
       </c>
@@ -13222,9 +12884,7 @@
         <v>251</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L216" s="4"/>
       <c r="M216" s="5" t="s">
         <v>31</v>
       </c>
@@ -13278,9 +12938,7 @@
         <v>248</v>
       </c>
       <c r="K217" s="5"/>
-      <c r="L217" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L217" s="4"/>
       <c r="M217" s="5" t="s">
         <v>31</v>
       </c>
@@ -13307,46 +12965,44 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="C218" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K218" s="5" t="s">
+      <c r="K218" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L218" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N218" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="N218" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V218" s="5" t="s">
+      <c r="V218" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -13372,9 +13028,7 @@
         <v>238</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L219" s="4"/>
       <c r="M219" s="5" t="s">
         <v>50</v>
       </c>
@@ -13422,9 +13076,7 @@
         <v>239</v>
       </c>
       <c r="K220" s="5"/>
-      <c r="L220" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L220" s="4"/>
       <c r="M220" s="5" t="s">
         <v>50</v>
       </c>
@@ -13478,9 +13130,7 @@
       <c r="K221" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L221" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L221" s="4"/>
       <c r="M221" s="5" t="s">
         <v>50</v>
       </c>
@@ -13534,9 +13184,7 @@
         <v>239</v>
       </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>50</v>
       </c>
@@ -13588,9 +13236,7 @@
         <v>239</v>
       </c>
       <c r="K223" s="5"/>
-      <c r="L223" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>50</v>
       </c>
@@ -13640,9 +13286,7 @@
         <v>239</v>
       </c>
       <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L224" s="4"/>
       <c r="M224" s="5" t="s">
         <v>50</v>
       </c>
@@ -13748,9 +13392,7 @@
         <v>239</v>
       </c>
       <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>50</v>
       </c>
@@ -13775,44 +13417,42 @@
       <c r="V226" s="5"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5" t="s">
+      <c r="C227" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K227" s="5"/>
-      <c r="L227" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M227" s="5" t="s">
+      <c r="K227" s="2"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N227" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O227" s="5"/>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
-      <c r="U227" s="5" t="s">
+      <c r="N227" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V227" s="5"/>
+      <c r="V227" s="2"/>
     </row>
     <row r="228" spans="1:22">
       <c r="A228" s="5" t="s">
@@ -13836,9 +13476,7 @@
         <v>238</v>
       </c>
       <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L228" s="4"/>
       <c r="M228" s="5" t="s">
         <v>30</v>
       </c>
@@ -13886,9 +13524,7 @@
         <v>239</v>
       </c>
       <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L229" s="4"/>
       <c r="M229" s="5" t="s">
         <v>30</v>
       </c>
@@ -13942,9 +13578,7 @@
       <c r="K230" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L230" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L230" s="4"/>
       <c r="M230" s="5" t="s">
         <v>30</v>
       </c>
@@ -13971,48 +13605,46 @@
       </c>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D231" s="5" t="s">
+      <c r="C231" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5" t="s">
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K231" s="5"/>
-      <c r="L231" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M231" s="5" t="s">
+      <c r="K231" s="2"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N231" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O231" s="5" t="s">
+      <c r="N231" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O231" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5" t="s">
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V231" s="5"/>
+      <c r="V231" s="2"/>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="5" t="s">
@@ -14042,9 +13674,7 @@
       <c r="K232" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L232" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L232" s="4"/>
       <c r="M232" s="5" t="s">
         <v>31</v>
       </c>
@@ -14098,9 +13728,7 @@
         <v>251</v>
       </c>
       <c r="K233" s="5"/>
-      <c r="L233" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L233" s="4"/>
       <c r="M233" s="5" t="s">
         <v>31</v>
       </c>
@@ -14154,9 +13782,7 @@
         <v>251</v>
       </c>
       <c r="K234" s="5"/>
-      <c r="L234" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L234" s="4"/>
       <c r="M234" s="5" t="s">
         <v>31</v>
       </c>
@@ -14210,9 +13836,7 @@
         <v>248</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>31</v>
       </c>
@@ -14239,46 +13863,44 @@
       <c r="V235" s="5"/>
     </row>
     <row r="236" spans="1:22">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C236" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5" t="s">
+      <c r="C236" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K236" s="5" t="s">
+      <c r="K236" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L236" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M236" s="5" t="s">
+      <c r="L236" s="4"/>
+      <c r="M236" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N236" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O236" s="5"/>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
-      <c r="U236" s="5" t="s">
+      <c r="N236" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V236" s="5" t="s">
+      <c r="V236" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -14304,9 +13926,7 @@
         <v>238</v>
       </c>
       <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L237" s="4"/>
       <c r="M237" s="5" t="s">
         <v>51</v>
       </c>
@@ -14354,9 +13974,7 @@
         <v>239</v>
       </c>
       <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L238" s="4"/>
       <c r="M238" s="5" t="s">
         <v>51</v>
       </c>
@@ -14410,9 +14028,7 @@
       <c r="K239" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L239" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L239" s="4"/>
       <c r="M239" s="5" t="s">
         <v>51</v>
       </c>
@@ -14466,9 +14082,7 @@
         <v>239</v>
       </c>
       <c r="K240" s="5"/>
-      <c r="L240" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L240" s="4"/>
       <c r="M240" s="5" t="s">
         <v>51</v>
       </c>
@@ -14520,9 +14134,7 @@
         <v>239</v>
       </c>
       <c r="K241" s="5"/>
-      <c r="L241" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L241" s="4"/>
       <c r="M241" s="5" t="s">
         <v>51</v>
       </c>
@@ -14572,9 +14184,7 @@
         <v>239</v>
       </c>
       <c r="K242" s="5"/>
-      <c r="L242" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L242" s="4"/>
       <c r="M242" s="5" t="s">
         <v>51</v>
       </c>
@@ -14680,9 +14290,7 @@
         <v>239</v>
       </c>
       <c r="K244" s="5"/>
-      <c r="L244" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L244" s="4"/>
       <c r="M244" s="5" t="s">
         <v>51</v>
       </c>
@@ -14707,44 +14315,42 @@
       <c r="V244" s="5"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5" t="s">
+      <c r="C245" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M245" s="5" t="s">
+      <c r="K245" s="2"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N245" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O245" s="5"/>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
-      <c r="U245" s="5" t="s">
+      <c r="N245" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V245" s="5"/>
+      <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:22">
       <c r="A246" s="5" t="s">
@@ -14768,9 +14374,7 @@
         <v>238</v>
       </c>
       <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L246" s="4"/>
       <c r="M246" s="5" t="s">
         <v>30</v>
       </c>
@@ -14818,9 +14422,7 @@
         <v>239</v>
       </c>
       <c r="K247" s="5"/>
-      <c r="L247" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L247" s="4"/>
       <c r="M247" s="5" t="s">
         <v>30</v>
       </c>
@@ -14874,9 +14476,7 @@
       <c r="K248" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L248" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L248" s="4"/>
       <c r="M248" s="5" t="s">
         <v>30</v>
       </c>
@@ -14903,48 +14503,46 @@
       </c>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="C249" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5" t="s">
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K249" s="5"/>
-      <c r="L249" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M249" s="5" t="s">
+      <c r="K249" s="2"/>
+      <c r="L249" s="4"/>
+      <c r="M249" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N249" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O249" s="5" t="s">
+      <c r="N249" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O249" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P249" s="5"/>
-      <c r="Q249" s="5"/>
-      <c r="R249" s="5"/>
-      <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
-      <c r="U249" s="5" t="s">
+      <c r="P249" s="2"/>
+      <c r="Q249" s="2"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V249" s="5"/>
+      <c r="V249" s="2"/>
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="5" t="s">
@@ -14974,9 +14572,7 @@
       <c r="K250" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L250" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L250" s="4"/>
       <c r="M250" s="5" t="s">
         <v>31</v>
       </c>
@@ -15030,9 +14626,7 @@
         <v>251</v>
       </c>
       <c r="K251" s="5"/>
-      <c r="L251" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L251" s="4"/>
       <c r="M251" s="5" t="s">
         <v>31</v>
       </c>
@@ -15086,9 +14680,7 @@
         <v>251</v>
       </c>
       <c r="K252" s="5"/>
-      <c r="L252" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L252" s="4"/>
       <c r="M252" s="5" t="s">
         <v>31</v>
       </c>
@@ -15142,9 +14734,7 @@
         <v>248</v>
       </c>
       <c r="K253" s="5"/>
-      <c r="L253" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L253" s="4"/>
       <c r="M253" s="5" t="s">
         <v>31</v>
       </c>
@@ -15171,46 +14761,44 @@
       <c r="V253" s="5"/>
     </row>
     <row r="254" spans="1:22">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5" t="s">
+      <c r="C254" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K254" s="5" t="s">
+      <c r="K254" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L254" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M254" s="5" t="s">
+      <c r="L254" s="4"/>
+      <c r="M254" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N254" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O254" s="5"/>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5" t="s">
+      <c r="N254" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V254" s="5" t="s">
+      <c r="V254" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -15236,9 +14824,7 @@
         <v>238</v>
       </c>
       <c r="K255" s="5"/>
-      <c r="L255" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L255" s="4"/>
       <c r="M255" s="5" t="s">
         <v>52</v>
       </c>
@@ -15286,9 +14872,7 @@
         <v>239</v>
       </c>
       <c r="K256" s="5"/>
-      <c r="L256" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L256" s="4"/>
       <c r="M256" s="5" t="s">
         <v>52</v>
       </c>
@@ -15342,9 +14926,7 @@
       <c r="K257" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L257" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L257" s="4"/>
       <c r="M257" s="5" t="s">
         <v>52</v>
       </c>
@@ -15398,9 +14980,7 @@
         <v>239</v>
       </c>
       <c r="K258" s="5"/>
-      <c r="L258" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L258" s="4"/>
       <c r="M258" s="5" t="s">
         <v>52</v>
       </c>
@@ -15452,9 +15032,7 @@
         <v>239</v>
       </c>
       <c r="K259" s="5"/>
-      <c r="L259" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L259" s="4"/>
       <c r="M259" s="5" t="s">
         <v>52</v>
       </c>
@@ -15504,9 +15082,7 @@
         <v>239</v>
       </c>
       <c r="K260" s="5"/>
-      <c r="L260" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L260" s="4"/>
       <c r="M260" s="5" t="s">
         <v>52</v>
       </c>
@@ -15612,9 +15188,7 @@
         <v>239</v>
       </c>
       <c r="K262" s="5"/>
-      <c r="L262" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L262" s="4"/>
       <c r="M262" s="5" t="s">
         <v>52</v>
       </c>
@@ -15639,44 +15213,42 @@
       <c r="V262" s="5"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5" t="s">
+      <c r="C263" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K263" s="5"/>
-      <c r="L263" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M263" s="5" t="s">
+      <c r="K263" s="2"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N263" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O263" s="5"/>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5" t="s">
+      <c r="N263" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O263" s="2"/>
+      <c r="P263" s="2"/>
+      <c r="Q263" s="2"/>
+      <c r="R263" s="2"/>
+      <c r="S263" s="2"/>
+      <c r="T263" s="2"/>
+      <c r="U263" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V263" s="5"/>
+      <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="5" t="s">
@@ -15700,9 +15272,7 @@
         <v>238</v>
       </c>
       <c r="K264" s="5"/>
-      <c r="L264" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L264" s="4"/>
       <c r="M264" s="5" t="s">
         <v>30</v>
       </c>
@@ -15750,9 +15320,7 @@
         <v>239</v>
       </c>
       <c r="K265" s="5"/>
-      <c r="L265" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L265" s="4"/>
       <c r="M265" s="5" t="s">
         <v>30</v>
       </c>
@@ -15806,9 +15374,7 @@
       <c r="K266" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L266" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L266" s="4"/>
       <c r="M266" s="5" t="s">
         <v>30</v>
       </c>
@@ -15835,48 +15401,46 @@
       </c>
     </row>
     <row r="267" spans="1:22">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D267" s="5" t="s">
+      <c r="C267" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5" t="s">
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K267" s="5"/>
-      <c r="L267" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M267" s="5" t="s">
+      <c r="K267" s="2"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N267" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O267" s="5" t="s">
+      <c r="N267" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O267" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P267" s="5"/>
-      <c r="Q267" s="5"/>
-      <c r="R267" s="5"/>
-      <c r="S267" s="5"/>
-      <c r="T267" s="5"/>
-      <c r="U267" s="5" t="s">
+      <c r="P267" s="2"/>
+      <c r="Q267" s="2"/>
+      <c r="R267" s="2"/>
+      <c r="S267" s="2"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V267" s="5"/>
+      <c r="V267" s="2"/>
     </row>
     <row r="268" spans="1:22">
       <c r="A268" s="5" t="s">
@@ -15906,9 +15470,7 @@
       <c r="K268" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L268" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L268" s="4"/>
       <c r="M268" s="5" t="s">
         <v>31</v>
       </c>
@@ -15962,9 +15524,7 @@
         <v>251</v>
       </c>
       <c r="K269" s="5"/>
-      <c r="L269" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L269" s="4"/>
       <c r="M269" s="5" t="s">
         <v>31</v>
       </c>
@@ -16018,9 +15578,7 @@
         <v>251</v>
       </c>
       <c r="K270" s="5"/>
-      <c r="L270" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L270" s="4"/>
       <c r="M270" s="5" t="s">
         <v>31</v>
       </c>
@@ -16074,9 +15632,7 @@
         <v>248</v>
       </c>
       <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L271" s="4"/>
       <c r="M271" s="5" t="s">
         <v>31</v>
       </c>
@@ -16103,46 +15659,44 @@
       <c r="V271" s="5"/>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
-      <c r="G272" s="5"/>
-      <c r="H272" s="5"/>
-      <c r="I272" s="5"/>
-      <c r="J272" s="5" t="s">
+      <c r="C272" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K272" s="5" t="s">
+      <c r="K272" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L272" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M272" s="5" t="s">
+      <c r="L272" s="4"/>
+      <c r="M272" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N272" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O272" s="5"/>
-      <c r="P272" s="5"/>
-      <c r="Q272" s="5"/>
-      <c r="R272" s="5"/>
-      <c r="S272" s="5"/>
-      <c r="T272" s="5"/>
-      <c r="U272" s="5" t="s">
+      <c r="N272" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
+      <c r="Q272" s="2"/>
+      <c r="R272" s="2"/>
+      <c r="S272" s="2"/>
+      <c r="T272" s="2"/>
+      <c r="U272" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V272" s="5" t="s">
+      <c r="V272" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -16168,9 +15722,7 @@
         <v>238</v>
       </c>
       <c r="K273" s="5"/>
-      <c r="L273" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L273" s="4"/>
       <c r="M273" s="5" t="s">
         <v>53</v>
       </c>
@@ -16218,9 +15770,7 @@
         <v>239</v>
       </c>
       <c r="K274" s="5"/>
-      <c r="L274" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L274" s="4"/>
       <c r="M274" s="5" t="s">
         <v>53</v>
       </c>
@@ -16274,9 +15824,7 @@
       <c r="K275" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L275" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L275" s="4"/>
       <c r="M275" s="5" t="s">
         <v>53</v>
       </c>
@@ -16330,9 +15878,7 @@
         <v>239</v>
       </c>
       <c r="K276" s="5"/>
-      <c r="L276" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L276" s="4"/>
       <c r="M276" s="5" t="s">
         <v>53</v>
       </c>
@@ -16384,9 +15930,7 @@
         <v>239</v>
       </c>
       <c r="K277" s="5"/>
-      <c r="L277" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L277" s="4"/>
       <c r="M277" s="5" t="s">
         <v>53</v>
       </c>
@@ -16436,9 +15980,7 @@
         <v>239</v>
       </c>
       <c r="K278" s="5"/>
-      <c r="L278" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L278" s="4"/>
       <c r="M278" s="5" t="s">
         <v>53</v>
       </c>
@@ -16490,9 +16032,7 @@
       <c r="K279" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L279" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L279" s="4"/>
       <c r="M279" s="5" t="s">
         <v>53</v>
       </c>
@@ -16544,9 +16084,7 @@
         <v>239</v>
       </c>
       <c r="K280" s="5"/>
-      <c r="L280" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L280" s="4"/>
       <c r="M280" s="5" t="s">
         <v>53</v>
       </c>
@@ -16571,44 +16109,42 @@
       <c r="V280" s="5"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
-      <c r="G281" s="5"/>
-      <c r="H281" s="5"/>
-      <c r="I281" s="5"/>
-      <c r="J281" s="5" t="s">
+      <c r="C281" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K281" s="5"/>
-      <c r="L281" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M281" s="5" t="s">
+      <c r="K281" s="2"/>
+      <c r="L281" s="4"/>
+      <c r="M281" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N281" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O281" s="5"/>
-      <c r="P281" s="5"/>
-      <c r="Q281" s="5"/>
-      <c r="R281" s="5"/>
-      <c r="S281" s="5"/>
-      <c r="T281" s="5"/>
-      <c r="U281" s="5" t="s">
+      <c r="N281" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
+      <c r="Q281" s="2"/>
+      <c r="R281" s="2"/>
+      <c r="S281" s="2"/>
+      <c r="T281" s="2"/>
+      <c r="U281" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V281" s="5"/>
+      <c r="V281" s="2"/>
     </row>
     <row r="282" spans="1:22">
       <c r="A282" s="5" t="s">
@@ -16632,9 +16168,7 @@
         <v>238</v>
       </c>
       <c r="K282" s="5"/>
-      <c r="L282" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L282" s="4"/>
       <c r="M282" s="5" t="s">
         <v>30</v>
       </c>
@@ -16682,9 +16216,7 @@
         <v>239</v>
       </c>
       <c r="K283" s="5"/>
-      <c r="L283" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L283" s="4"/>
       <c r="M283" s="5" t="s">
         <v>30</v>
       </c>
@@ -16738,9 +16270,7 @@
       <c r="K284" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L284" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L284" s="4"/>
       <c r="M284" s="5" t="s">
         <v>30</v>
       </c>
@@ -16767,48 +16297,46 @@
       </c>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D285" s="5" t="s">
+      <c r="C285" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D285" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E285" s="5"/>
-      <c r="F285" s="5"/>
-      <c r="G285" s="5"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="5"/>
-      <c r="J285" s="5" t="s">
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K285" s="5"/>
-      <c r="L285" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M285" s="5" t="s">
+      <c r="K285" s="2"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N285" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O285" s="5" t="s">
+      <c r="N285" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O285" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P285" s="5"/>
-      <c r="Q285" s="5"/>
-      <c r="R285" s="5"/>
-      <c r="S285" s="5"/>
-      <c r="T285" s="5"/>
-      <c r="U285" s="5" t="s">
+      <c r="P285" s="2"/>
+      <c r="Q285" s="2"/>
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+      <c r="U285" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V285" s="5"/>
+      <c r="V285" s="2"/>
     </row>
     <row r="286" spans="1:22">
       <c r="A286" s="5" t="s">
@@ -16838,9 +16366,7 @@
       <c r="K286" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L286" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L286" s="4"/>
       <c r="M286" s="5" t="s">
         <v>31</v>
       </c>
@@ -16894,9 +16420,7 @@
         <v>251</v>
       </c>
       <c r="K287" s="5"/>
-      <c r="L287" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L287" s="4"/>
       <c r="M287" s="5" t="s">
         <v>31</v>
       </c>
@@ -16950,9 +16474,7 @@
         <v>251</v>
       </c>
       <c r="K288" s="5"/>
-      <c r="L288" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L288" s="4"/>
       <c r="M288" s="5" t="s">
         <v>31</v>
       </c>
@@ -17006,9 +16528,7 @@
         <v>248</v>
       </c>
       <c r="K289" s="5"/>
-      <c r="L289" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L289" s="4"/>
       <c r="M289" s="5" t="s">
         <v>31</v>
       </c>
@@ -17035,46 +16555,44 @@
       <c r="V289" s="5"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
-      <c r="F290" s="5"/>
-      <c r="G290" s="5"/>
-      <c r="H290" s="5"/>
-      <c r="I290" s="5"/>
-      <c r="J290" s="5" t="s">
+      <c r="C290" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K290" s="5" t="s">
+      <c r="K290" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L290" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M290" s="5" t="s">
+      <c r="L290" s="4"/>
+      <c r="M290" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N290" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O290" s="5"/>
-      <c r="P290" s="5"/>
-      <c r="Q290" s="5"/>
-      <c r="R290" s="5"/>
-      <c r="S290" s="5"/>
-      <c r="T290" s="5"/>
-      <c r="U290" s="5" t="s">
+      <c r="N290" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O290" s="2"/>
+      <c r="P290" s="2"/>
+      <c r="Q290" s="2"/>
+      <c r="R290" s="2"/>
+      <c r="S290" s="2"/>
+      <c r="T290" s="2"/>
+      <c r="U290" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="V290" s="5" t="s">
+      <c r="V290" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -17100,9 +16618,7 @@
         <v>238</v>
       </c>
       <c r="K291" s="5"/>
-      <c r="L291" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L291" s="4"/>
       <c r="M291" s="5" t="s">
         <v>54</v>
       </c>
@@ -17150,9 +16666,7 @@
         <v>239</v>
       </c>
       <c r="K292" s="5"/>
-      <c r="L292" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L292" s="4"/>
       <c r="M292" s="5" t="s">
         <v>54</v>
       </c>
@@ -17206,9 +16720,7 @@
       <c r="K293" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L293" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L293" s="4"/>
       <c r="M293" s="5" t="s">
         <v>54</v>
       </c>
@@ -17262,9 +16774,7 @@
         <v>239</v>
       </c>
       <c r="K294" s="5"/>
-      <c r="L294" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L294" s="4"/>
       <c r="M294" s="5" t="s">
         <v>54</v>
       </c>
@@ -17368,9 +16878,7 @@
         <v>239</v>
       </c>
       <c r="K296" s="5"/>
-      <c r="L296" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L296" s="4"/>
       <c r="M296" s="5" t="s">
         <v>54</v>
       </c>
@@ -17422,9 +16930,7 @@
       <c r="K297" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L297" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L297" s="4"/>
       <c r="M297" s="5" t="s">
         <v>54</v>
       </c>
@@ -17476,9 +16982,7 @@
         <v>239</v>
       </c>
       <c r="K298" s="5"/>
-      <c r="L298" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L298" s="4"/>
       <c r="M298" s="5" t="s">
         <v>54</v>
       </c>
@@ -17503,44 +17007,42 @@
       <c r="V298" s="5"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B299" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C299" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D299" s="5"/>
-      <c r="E299" s="5"/>
-      <c r="F299" s="5"/>
-      <c r="G299" s="5"/>
-      <c r="H299" s="5"/>
-      <c r="I299" s="5"/>
-      <c r="J299" s="5" t="s">
+      <c r="C299" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K299" s="5"/>
-      <c r="L299" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M299" s="5" t="s">
+      <c r="K299" s="2"/>
+      <c r="L299" s="4"/>
+      <c r="M299" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N299" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O299" s="5"/>
-      <c r="P299" s="5"/>
-      <c r="Q299" s="5"/>
-      <c r="R299" s="5"/>
-      <c r="S299" s="5"/>
-      <c r="T299" s="5"/>
-      <c r="U299" s="5" t="s">
+      <c r="N299" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O299" s="2"/>
+      <c r="P299" s="2"/>
+      <c r="Q299" s="2"/>
+      <c r="R299" s="2"/>
+      <c r="S299" s="2"/>
+      <c r="T299" s="2"/>
+      <c r="U299" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V299" s="5"/>
+      <c r="V299" s="2"/>
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="5" t="s">
@@ -17564,9 +17066,7 @@
         <v>238</v>
       </c>
       <c r="K300" s="5"/>
-      <c r="L300" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L300" s="4"/>
       <c r="M300" s="5" t="s">
         <v>30</v>
       </c>
@@ -17614,9 +17114,7 @@
         <v>239</v>
       </c>
       <c r="K301" s="5"/>
-      <c r="L301" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L301" s="4"/>
       <c r="M301" s="5" t="s">
         <v>30</v>
       </c>
@@ -17670,9 +17168,7 @@
       <c r="K302" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L302" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L302" s="4"/>
       <c r="M302" s="5" t="s">
         <v>30</v>
       </c>
@@ -17699,48 +17195,46 @@
       </c>
     </row>
     <row r="303" spans="1:22">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B303" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D303" s="5" t="s">
+      <c r="C303" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D303" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E303" s="5"/>
-      <c r="F303" s="5"/>
-      <c r="G303" s="5"/>
-      <c r="H303" s="5"/>
-      <c r="I303" s="5"/>
-      <c r="J303" s="5" t="s">
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K303" s="5"/>
-      <c r="L303" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M303" s="5" t="s">
+      <c r="K303" s="2"/>
+      <c r="L303" s="4"/>
+      <c r="M303" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N303" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O303" s="5" t="s">
+      <c r="N303" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O303" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P303" s="5"/>
-      <c r="Q303" s="5"/>
-      <c r="R303" s="5"/>
-      <c r="S303" s="5"/>
-      <c r="T303" s="5"/>
-      <c r="U303" s="5" t="s">
+      <c r="P303" s="2"/>
+      <c r="Q303" s="2"/>
+      <c r="R303" s="2"/>
+      <c r="S303" s="2"/>
+      <c r="T303" s="2"/>
+      <c r="U303" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V303" s="5"/>
+      <c r="V303" s="2"/>
     </row>
     <row r="304" spans="1:22">
       <c r="A304" s="5" t="s">
@@ -17770,9 +17264,7 @@
       <c r="K304" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L304" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L304" s="4"/>
       <c r="M304" s="5" t="s">
         <v>31</v>
       </c>
@@ -17826,9 +17318,7 @@
         <v>251</v>
       </c>
       <c r="K305" s="5"/>
-      <c r="L305" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L305" s="4"/>
       <c r="M305" s="5" t="s">
         <v>31</v>
       </c>
@@ -17882,9 +17372,7 @@
         <v>251</v>
       </c>
       <c r="K306" s="5"/>
-      <c r="L306" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L306" s="4"/>
       <c r="M306" s="5" t="s">
         <v>31</v>
       </c>
@@ -17938,9 +17426,7 @@
         <v>248</v>
       </c>
       <c r="K307" s="5"/>
-      <c r="L307" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L307" s="4"/>
       <c r="M307" s="5" t="s">
         <v>31</v>
       </c>
@@ -17967,44 +17453,42 @@
       <c r="V307" s="5"/>
     </row>
     <row r="308" spans="1:22">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B308" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C308" s="5"/>
-      <c r="D308" s="5" t="s">
+      <c r="C308" s="2"/>
+      <c r="D308" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E308" s="5"/>
-      <c r="F308" s="5"/>
-      <c r="G308" s="5"/>
-      <c r="H308" s="5"/>
-      <c r="I308" s="5"/>
-      <c r="J308" s="5" t="s">
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K308" s="5"/>
-      <c r="L308" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M308" s="5" t="s">
+      <c r="K308" s="2"/>
+      <c r="L308" s="4"/>
+      <c r="M308" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N308" s="5"/>
-      <c r="O308" s="5" t="s">
+      <c r="N308" s="2"/>
+      <c r="O308" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P308" s="5"/>
-      <c r="Q308" s="5"/>
-      <c r="R308" s="5"/>
-      <c r="S308" s="5"/>
-      <c r="T308" s="5"/>
-      <c r="U308" s="5" t="s">
+      <c r="P308" s="2"/>
+      <c r="Q308" s="2"/>
+      <c r="R308" s="2"/>
+      <c r="S308" s="2"/>
+      <c r="T308" s="2"/>
+      <c r="U308" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V308" s="5"/>
+      <c r="V308" s="2"/>
     </row>
     <row r="309" spans="1:22">
       <c r="A309" s="5" t="s">
@@ -18030,9 +17514,7 @@
         <v>239</v>
       </c>
       <c r="K309" s="5"/>
-      <c r="L309" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L309" s="4"/>
       <c r="M309" s="5" t="s">
         <v>55</v>
       </c>
@@ -18078,9 +17560,7 @@
         <v>239</v>
       </c>
       <c r="K310" s="5"/>
-      <c r="L310" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="L310" s="4"/>
       <c r="M310" s="5" t="s">
         <v>55</v>
       </c>

--- a/data/output/FV2304_FV2210/PARTIN/37001.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37001.xlsx
@@ -1902,7 +1902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1936,6 +1936,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2373,7 +2376,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2897,7 +2900,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3085,7 +3088,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3253,46 +3256,46 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5" t="s">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V21" s="5"/>
+      <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="5" t="s">
@@ -3467,7 +3470,7 @@
         <v>266</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3647,48 +3650,48 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="2" t="s">
         <v>266</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O29" s="6"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3861,7 +3864,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4157,7 +4160,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4343,7 +4346,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4707,7 +4710,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5003,7 +5006,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5093,7 +5096,7 @@
         <v>269</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5539,7 +5542,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6004,7 +6007,7 @@
       <c r="A77" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -6122,7 +6125,7 @@
       <c r="A80" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -6259,7 +6262,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6407,7 +6410,7 @@
         <v>271</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6605,7 +6608,7 @@
         <v>272</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6847,7 +6850,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6995,7 +6998,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7131,7 +7134,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7605,7 +7608,7 @@
         <v>269</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8055,7 +8058,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8245,7 +8248,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8503,7 +8506,7 @@
         <v>269</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8953,7 +8956,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9143,7 +9146,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9401,7 +9404,7 @@
         <v>269</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9849,7 +9852,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10039,7 +10042,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10297,7 +10300,7 @@
         <v>269</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10745,7 +10748,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10935,7 +10938,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11193,7 +11196,7 @@
         <v>269</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11643,7 +11646,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -11833,7 +11836,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12091,7 +12094,7 @@
         <v>269</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12539,7 +12542,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -12729,7 +12732,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -12987,7 +12990,7 @@
         <v>269</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13437,7 +13440,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -13627,7 +13630,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -13885,7 +13888,7 @@
         <v>269</v>
       </c>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14335,7 +14338,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -14525,7 +14528,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -14783,7 +14786,7 @@
         <v>269</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15233,7 +15236,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -15423,7 +15426,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -15681,7 +15684,7 @@
         <v>269</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -16129,7 +16132,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -16319,7 +16322,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -16577,7 +16580,7 @@
         <v>269</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -17027,7 +17030,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -17217,7 +17220,7 @@
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -17473,7 +17476,7 @@
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N308" s="2"/>
